--- a/pred_ohlcv/54_23/2019-10-07 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-07 LINK ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -576,7 +576,7 @@
         <v>2509</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>2509</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -622,7 +622,7 @@
         <v>2534</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>2549</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1473,7 +1473,7 @@
         <v>2529</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>2529</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1657,7 +1657,7 @@
         <v>2521</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>2522</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -1726,7 +1726,7 @@
         <v>2531</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>2533</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>2533</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>2537</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -1956,10 +1956,10 @@
         <v>2544</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1979,7 +1979,7 @@
         <v>2545</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2071,10 +2071,10 @@
         <v>2547</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2117,7 +2117,7 @@
         <v>2538</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>2538</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>2535</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>2532</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2232,7 +2232,7 @@
         <v>2548</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
         <v>2551</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2373,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2649,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2695,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2741,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2830,10 +2830,10 @@
         <v>2583</v>
       </c>
       <c r="F107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2853,10 +2853,10 @@
         <v>2587</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -2971,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3017,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -3224,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3247,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3270,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3454,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192">
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195">
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="G204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208">
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
@@ -5248,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217">
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -5455,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -5478,7 +5478,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -5524,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -5570,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -5613,10 +5613,10 @@
         <v>2585</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5639,7 +5639,7 @@
         <v>0</v>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
@@ -5685,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
@@ -5708,7 +5708,7 @@
         <v>0</v>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="G233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="G234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -5915,7 +5915,7 @@
         <v>0</v>
       </c>
       <c r="G241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -5938,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="G242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243">
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -6030,7 +6030,7 @@
         <v>0</v>
       </c>
       <c r="G246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263">
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="G263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -6513,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="G267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="G268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="G269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="G270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="G271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="G273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
       <c r="G275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="G276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278">
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="G278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -6789,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="G279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="G280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="G282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="G283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284">
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285">
@@ -6927,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286">
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287">
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="G301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="G303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="G310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="G343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="G352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="G354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357">
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="G357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358">
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="G358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="G359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="G360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="G366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -9707,7 +9707,7 @@
         <v>2658</v>
       </c>
       <c r="F406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -9730,7 +9730,7 @@
         <v>2660</v>
       </c>
       <c r="F407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -9753,7 +9753,7 @@
         <v>2660</v>
       </c>
       <c r="F408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G408" t="n">
         <v>2</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="G425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -10170,7 +10170,7 @@
         <v>0</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
       <c r="G428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -10239,7 +10239,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -10972,7 +10972,7 @@
         <v>2703</v>
       </c>
       <c r="F461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G461" t="n">
         <v>2</v>
@@ -10995,7 +10995,7 @@
         <v>2708</v>
       </c>
       <c r="F462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G462" t="n">
         <v>2</v>
@@ -11018,7 +11018,7 @@
         <v>2714</v>
       </c>
       <c r="F463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -11041,7 +11041,7 @@
         <v>2709</v>
       </c>
       <c r="F464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G464" t="n">
         <v>2</v>
@@ -11064,7 +11064,7 @@
         <v>2711</v>
       </c>
       <c r="F465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G465" t="n">
         <v>2</v>
@@ -11087,7 +11087,7 @@
         <v>2710</v>
       </c>
       <c r="F466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G466" t="n">
         <v>2</v>
@@ -11110,7 +11110,7 @@
         <v>2697</v>
       </c>
       <c r="F467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G467" t="n">
         <v>2</v>
@@ -11133,7 +11133,7 @@
         <v>2695</v>
       </c>
       <c r="F468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G468" t="n">
         <v>2</v>
@@ -11202,7 +11202,7 @@
         <v>2707</v>
       </c>
       <c r="F471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G471" t="n">
         <v>2</v>
@@ -11225,7 +11225,7 @@
         <v>2716</v>
       </c>
       <c r="F472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -11248,7 +11248,7 @@
         <v>2710</v>
       </c>
       <c r="F473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G473" t="n">
         <v>2</v>
@@ -11271,7 +11271,7 @@
         <v>2716</v>
       </c>
       <c r="F474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G474" t="n">
         <v>2</v>
@@ -11294,7 +11294,7 @@
         <v>2710</v>
       </c>
       <c r="F475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -11317,7 +11317,7 @@
         <v>2708</v>
       </c>
       <c r="F476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G476" t="n">
         <v>2</v>
@@ -11340,7 +11340,7 @@
         <v>2705</v>
       </c>
       <c r="F477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G477" t="n">
         <v>2</v>
@@ -11363,7 +11363,7 @@
         <v>2704</v>
       </c>
       <c r="F478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G478" t="n">
         <v>2</v>
@@ -11386,7 +11386,7 @@
         <v>2707</v>
       </c>
       <c r="F479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G479" t="n">
         <v>2</v>
@@ -11409,7 +11409,7 @@
         <v>2709</v>
       </c>
       <c r="F480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G480" t="n">
         <v>2</v>
@@ -11432,7 +11432,7 @@
         <v>2709</v>
       </c>
       <c r="F481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G481" t="n">
         <v>2</v>
@@ -11455,7 +11455,7 @@
         <v>2713</v>
       </c>
       <c r="F482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G482" t="n">
         <v>2</v>
@@ -11478,7 +11478,7 @@
         <v>2710</v>
       </c>
       <c r="F483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G483" t="n">
         <v>2</v>
@@ -11501,7 +11501,7 @@
         <v>2708</v>
       </c>
       <c r="F484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G484" t="n">
         <v>2</v>
@@ -11524,7 +11524,7 @@
         <v>2709</v>
       </c>
       <c r="F485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G485" t="n">
         <v>2</v>
@@ -11547,7 +11547,7 @@
         <v>2706</v>
       </c>
       <c r="F486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -12539,7 +12539,7 @@
         <v>0</v>
       </c>
       <c r="G529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530">
@@ -12562,7 +12562,7 @@
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531">
@@ -12585,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="G531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -12608,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="G532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -12631,7 +12631,7 @@
         <v>0</v>
       </c>
       <c r="G533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534">
@@ -12654,7 +12654,7 @@
         <v>0</v>
       </c>
       <c r="G534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -12677,7 +12677,7 @@
         <v>0</v>
       </c>
       <c r="G535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -12700,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="G536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
       <c r="G537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
       <c r="G538" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -12769,7 +12769,7 @@
         <v>0</v>
       </c>
       <c r="G539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -12792,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -12930,7 +12930,7 @@
         <v>0</v>
       </c>
       <c r="G546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
       <c r="G548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549">
@@ -12999,7 +12999,7 @@
         <v>0</v>
       </c>
       <c r="G549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550">
@@ -13022,7 +13022,7 @@
         <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -13045,7 +13045,7 @@
         <v>0</v>
       </c>
       <c r="G551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552">
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
       <c r="G557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558">
@@ -13206,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="G558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559">
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="G559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560">
@@ -13252,7 +13252,7 @@
         <v>0</v>
       </c>
       <c r="G560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561">
@@ -13275,7 +13275,7 @@
         <v>0</v>
       </c>
       <c r="G561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
@@ -13298,7 +13298,7 @@
         <v>0</v>
       </c>
       <c r="G562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563">
@@ -13321,7 +13321,7 @@
         <v>0</v>
       </c>
       <c r="G563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564">
@@ -13344,7 +13344,7 @@
         <v>0</v>
       </c>
       <c r="G564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565">
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="G565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566">
@@ -13390,7 +13390,7 @@
         <v>0</v>
       </c>
       <c r="G566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567">
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568">
@@ -13551,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="G573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574">
@@ -13574,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="G574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575">
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="G575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576">
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="G576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="G577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
       <c r="G582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583">
@@ -13781,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="G583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584">
@@ -14146,7 +14146,7 @@
         <v>2745</v>
       </c>
       <c r="F599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G599" t="n">
         <v>2</v>
@@ -14169,7 +14169,7 @@
         <v>2743</v>
       </c>
       <c r="F600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G600" t="n">
         <v>2</v>
@@ -14192,7 +14192,7 @@
         <v>2743</v>
       </c>
       <c r="F601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G601" t="n">
         <v>2</v>
@@ -14215,7 +14215,7 @@
         <v>2746</v>
       </c>
       <c r="F602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G602" t="n">
         <v>2</v>
@@ -14238,7 +14238,7 @@
         <v>2751</v>
       </c>
       <c r="F603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G603" t="n">
         <v>2</v>
@@ -14261,7 +14261,7 @@
         <v>2749</v>
       </c>
       <c r="F604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G604" t="n">
         <v>2</v>
@@ -14284,7 +14284,7 @@
         <v>2752</v>
       </c>
       <c r="F605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G605" t="n">
         <v>2</v>
@@ -14307,7 +14307,7 @@
         <v>2745</v>
       </c>
       <c r="F606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G606" t="n">
         <v>2</v>
@@ -14330,7 +14330,7 @@
         <v>2750</v>
       </c>
       <c r="F607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G607" t="n">
         <v>2</v>
@@ -14353,7 +14353,7 @@
         <v>2750</v>
       </c>
       <c r="F608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G608" t="n">
         <v>2</v>
@@ -14491,7 +14491,7 @@
         <v>2771</v>
       </c>
       <c r="F614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G614" t="n">
         <v>2</v>
@@ -14514,7 +14514,7 @@
         <v>2773</v>
       </c>
       <c r="F615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G615" t="n">
         <v>2</v>
@@ -14537,7 +14537,7 @@
         <v>2779</v>
       </c>
       <c r="F616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G616" t="n">
         <v>2</v>
@@ -14583,7 +14583,7 @@
         <v>2776</v>
       </c>
       <c r="F618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G618" t="n">
         <v>2</v>
@@ -14606,7 +14606,7 @@
         <v>2779</v>
       </c>
       <c r="F619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G619" t="n">
         <v>2</v>
@@ -14629,7 +14629,7 @@
         <v>2763</v>
       </c>
       <c r="F620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G620" t="n">
         <v>2</v>
@@ -14652,7 +14652,7 @@
         <v>2764</v>
       </c>
       <c r="F621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G621" t="n">
         <v>2</v>
@@ -14698,7 +14698,7 @@
         <v>2779</v>
       </c>
       <c r="F623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G623" t="n">
         <v>2</v>
@@ -14721,7 +14721,7 @@
         <v>2773</v>
       </c>
       <c r="F624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G624" t="n">
         <v>2</v>
@@ -14744,7 +14744,7 @@
         <v>2772</v>
       </c>
       <c r="F625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G625" t="n">
         <v>2</v>
@@ -14767,7 +14767,7 @@
         <v>2771</v>
       </c>
       <c r="F626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G626" t="n">
         <v>2</v>
@@ -14790,7 +14790,7 @@
         <v>2769</v>
       </c>
       <c r="F627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G627" t="n">
         <v>2</v>
@@ -14859,7 +14859,7 @@
         <v>2785</v>
       </c>
       <c r="F630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G630" t="n">
         <v>2</v>
@@ -14882,7 +14882,7 @@
         <v>2805</v>
       </c>
       <c r="F631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G631" t="n">
         <v>2</v>
@@ -14974,7 +14974,7 @@
         <v>2818</v>
       </c>
       <c r="F635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G635" t="n">
         <v>2</v>
@@ -14997,7 +14997,7 @@
         <v>2828</v>
       </c>
       <c r="F636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G636" t="n">
         <v>2</v>
@@ -15020,7 +15020,7 @@
         <v>2822</v>
       </c>
       <c r="F637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G637" t="n">
         <v>2</v>
@@ -15043,7 +15043,7 @@
         <v>2809</v>
       </c>
       <c r="F638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G638" t="n">
         <v>2</v>
@@ -15181,7 +15181,7 @@
         <v>2825</v>
       </c>
       <c r="F644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G644" t="n">
         <v>2</v>
@@ -15204,7 +15204,7 @@
         <v>2817</v>
       </c>
       <c r="F645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G645" t="n">
         <v>2</v>
@@ -15227,7 +15227,7 @@
         <v>2814</v>
       </c>
       <c r="F646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G646" t="n">
         <v>2</v>
@@ -15250,13 +15250,13 @@
         <v>2822</v>
       </c>
       <c r="F647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G647" t="n">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>